--- a/【西安】李子明进度表.xlsx
+++ b/【西安】李子明进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>第二天</t>
+  </si>
+  <si>
+    <t>三个注册页面的内容基本完成</t>
+  </si>
+  <si>
+    <t>更加熟悉了正则表达式和ajax的内容，以及部分css的内容</t>
   </si>
   <si>
     <t>第三天</t>
@@ -66,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -216,23 +215,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +258,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -271,30 +294,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,42 +306,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,6 +360,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,7 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,48 +427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,148 +542,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,15 +1051,15 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.725" customWidth="1"/>
-    <col min="2" max="2" width="22.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="22.725" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="16.5416666666667" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
     <col min="6" max="6" width="42.25" customWidth="1"/>
@@ -1110,15 +1109,25 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1138,7 +1147,7 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>

--- a/【西安】李子明进度表.xlsx
+++ b/【西安】李子明进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>第三天</t>
+  </si>
+  <si>
+    <t>三个注册登录页面的完善</t>
+  </si>
+  <si>
+    <t>雪碧图的写法</t>
+  </si>
+  <si>
+    <t>吸底，正则表达式，插件的初步应用，JQuery的加强理解</t>
   </si>
   <si>
     <t>第四天</t>
@@ -72,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,6 +102,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -100,11 +117,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,46 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,75 +224,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +261,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,163 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,17 +449,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,17 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,39 +546,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -545,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,7 +1061,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1062,7 +1071,7 @@
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="16.5416666666667" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="42.25" customWidth="1"/>
+    <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:6">
@@ -1129,15 +1138,25 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.674305555555556</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1147,7 +1166,7 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>

--- a/【西安】李子明进度表.xlsx
+++ b/【西安】李子明进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>第四天</t>
+  </si>
+  <si>
+    <t>三个登录页面的bug完善</t>
+  </si>
+  <si>
+    <t>三个登录也难的bug完善</t>
+  </si>
+  <si>
+    <t>ajax以及if函数的综合应用继续深入了解</t>
   </si>
   <si>
     <t>第五天</t>
@@ -81,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,8 +111,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -111,58 +135,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +211,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -183,64 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,24 +270,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,6 +318,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,12 +414,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,36 +426,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,30 +445,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,50 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,17 +497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +522,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -554,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,8 +1069,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1158,15 +1167,25 @@
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.701388888888889</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>

--- a/【西安】李子明进度表.xlsx
+++ b/【西安】李子明进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>三个登录也难的bug完善</t>
+  </si>
+  <si>
+    <t>雪碧图的写法,post请求头在JQuery里面怎么写</t>
   </si>
   <si>
     <t>ajax以及if函数的综合应用继续深入了解</t>
@@ -90,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,6 +111,74 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,60 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,26 +237,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -247,7 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -270,6 +273,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,169 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,30 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,6 +476,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -508,6 +496,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,21 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -563,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1073,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1079,7 +1082,7 @@
     <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="16.5416666666667" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1177,15 +1180,15 @@
         <v>0.701388888888889</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
